--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H2">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>213.3041009100809</v>
+        <v>492.021708888287</v>
       </c>
       <c r="R2">
-        <v>213.3041009100809</v>
+        <v>4428.195379994583</v>
       </c>
       <c r="S2">
-        <v>0.00307810657174129</v>
+        <v>0.006258866179059004</v>
       </c>
       <c r="T2">
-        <v>0.00307810657174129</v>
+        <v>0.006258866179059005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H3">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>253.8787027612042</v>
+        <v>540.9603969884596</v>
       </c>
       <c r="R3">
-        <v>253.8787027612042</v>
+        <v>4868.643572896136</v>
       </c>
       <c r="S3">
-        <v>0.003663622499802973</v>
+        <v>0.006881401108442034</v>
       </c>
       <c r="T3">
-        <v>0.003663622499802973</v>
+        <v>0.006881401108442034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H4">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>92.7379720043504</v>
+        <v>218.2122821283044</v>
       </c>
       <c r="R4">
-        <v>92.7379720043504</v>
+        <v>1963.91053915474</v>
       </c>
       <c r="S4">
-        <v>0.001338264758429967</v>
+        <v>0.002775815472764476</v>
       </c>
       <c r="T4">
-        <v>0.001338264758429967</v>
+        <v>0.002775815472764477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H5">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>120.7254334214642</v>
+        <v>299.8447267962887</v>
       </c>
       <c r="R5">
-        <v>120.7254334214642</v>
+        <v>2698.602541166598</v>
       </c>
       <c r="S5">
-        <v>0.001742140673364627</v>
+        <v>0.003814238245208359</v>
       </c>
       <c r="T5">
-        <v>0.001742140673364627</v>
+        <v>0.003814238245208359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H6">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>20392.19654762192</v>
+        <v>22294.58058358502</v>
       </c>
       <c r="R6">
-        <v>20392.19654762192</v>
+        <v>200651.2252522652</v>
       </c>
       <c r="S6">
-        <v>0.2942716709977167</v>
+        <v>0.2836029261924049</v>
       </c>
       <c r="T6">
-        <v>0.2942716709977167</v>
+        <v>0.283602926192405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H7">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>24271.19021093834</v>
+        <v>24512.09966006942</v>
       </c>
       <c r="R7">
-        <v>24271.19021093834</v>
+        <v>220608.8969406247</v>
       </c>
       <c r="S7">
-        <v>0.3502478844687855</v>
+        <v>0.3118113464683843</v>
       </c>
       <c r="T7">
-        <v>0.3502478844687855</v>
+        <v>0.3118113464683843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H8">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>8865.891206366376</v>
+        <v>9887.676133700948</v>
       </c>
       <c r="R8">
-        <v>8865.891206366376</v>
+        <v>88989.08520330855</v>
       </c>
       <c r="S8">
-        <v>0.1279401468149172</v>
+        <v>0.1257782748703083</v>
       </c>
       <c r="T8">
-        <v>0.1279401468149172</v>
+        <v>0.1257782748703083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H9">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>11541.53509531046</v>
+        <v>13586.62088147963</v>
       </c>
       <c r="R9">
-        <v>11541.53509531046</v>
+        <v>122279.5879333167</v>
       </c>
       <c r="S9">
-        <v>0.1665512987011629</v>
+        <v>0.1728314836248357</v>
       </c>
       <c r="T9">
-        <v>0.1665512987011629</v>
+        <v>0.1728314836248357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H10">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>110.989695304854</v>
+        <v>123.6336423728302</v>
       </c>
       <c r="R10">
-        <v>110.989695304854</v>
+        <v>1112.702781355472</v>
       </c>
       <c r="S10">
-        <v>0.001601648112041941</v>
+        <v>0.001572707888417328</v>
       </c>
       <c r="T10">
-        <v>0.001601648112041941</v>
+        <v>0.001572707888417329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H11">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>132.1021009143005</v>
+        <v>135.9307994971431</v>
       </c>
       <c r="R11">
-        <v>132.1021009143005</v>
+        <v>1223.377195474288</v>
       </c>
       <c r="S11">
-        <v>0.001906312833322195</v>
+        <v>0.001729136475679952</v>
       </c>
       <c r="T11">
-        <v>0.001906312833322195</v>
+        <v>0.001729136475679952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H12">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>48.25485873003429</v>
+        <v>54.83168478676889</v>
       </c>
       <c r="R12">
-        <v>48.25485873003429</v>
+        <v>493.48516308092</v>
       </c>
       <c r="S12">
-        <v>0.0006963466578543701</v>
+        <v>0.0006974980397270468</v>
       </c>
       <c r="T12">
-        <v>0.0006963466578543701</v>
+        <v>0.0006974980397270471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H13">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>62.81772836914781</v>
+        <v>75.34402456320935</v>
       </c>
       <c r="R13">
-        <v>62.81772836914781</v>
+        <v>678.096221068884</v>
       </c>
       <c r="S13">
-        <v>0.0009064976326753541</v>
+        <v>0.0009584295949021445</v>
       </c>
       <c r="T13">
-        <v>0.0009064976326753541</v>
+        <v>0.0009584295949021446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H14">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>1000.184462191514</v>
+        <v>2027.103338639743</v>
       </c>
       <c r="R14">
-        <v>1000.184462191514</v>
+        <v>18243.93004775768</v>
       </c>
       <c r="S14">
-        <v>0.0144332638373561</v>
+        <v>0.0257861966219676</v>
       </c>
       <c r="T14">
-        <v>0.0144332638373561</v>
+        <v>0.02578619662196761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H15">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>1190.439061882534</v>
+        <v>2228.728137392338</v>
       </c>
       <c r="R15">
-        <v>1190.439061882534</v>
+        <v>20058.55323653104</v>
       </c>
       <c r="S15">
-        <v>0.01717875223216108</v>
+        <v>0.02835100750525877</v>
       </c>
       <c r="T15">
-        <v>0.01717875223216108</v>
+        <v>0.02835100750525877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H16">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>434.8490172394954</v>
+        <v>899.0230261057767</v>
       </c>
       <c r="R16">
-        <v>434.8490172394954</v>
+        <v>8091.207234951991</v>
       </c>
       <c r="S16">
-        <v>0.006275133070434435</v>
+        <v>0.01143621248949058</v>
       </c>
       <c r="T16">
-        <v>0.006275133070434435</v>
+        <v>0.01143621248949058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H17">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>566.0824249712208</v>
+        <v>1235.344367498797</v>
       </c>
       <c r="R17">
-        <v>566.0824249712208</v>
+        <v>11118.09930748917</v>
       </c>
       <c r="S17">
-        <v>0.008168910138233591</v>
+        <v>0.01571445922314937</v>
       </c>
       <c r="T17">
-        <v>0.008168910138233591</v>
+        <v>0.01571445922314938</v>
       </c>
     </row>
   </sheetData>
